--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D777E21D-9EA1-4CB3-BF87-11E2A02D44F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54C4D2-D344-4B03-A314-9F0255F4DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="1875" windowWidth="21600" windowHeight="13875" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,19 @@
   <si>
     <t>강철이 보스를 공략하여 매일 보상과,
 랭킹 보상을 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" ……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,11 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE43"/>
+  <dimension ref="A1:GE44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2315,6 +2328,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="44" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54C4D2-D344-4B03-A314-9F0255F4DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA02411-6BEC-4381-97A4-11E5AC28BC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="105">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,269 +185,306 @@
     <t>Description2</t>
   </si>
   <si>
-    <t>스테이지를 클리어 하거나, 일일훈련, 칭호등에서
+    <t>요괴사냥 부처님전의 부처님손바닥에서 
+능력치를 올리는데 사용 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방의 검의산 탭에서 획득하실 수 있고, 
+검기 효과를 강화하는데 사용 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 도깨비나라의 도깨비숲에서 
+능력치를 올리는데 사용 됩니다
+(자동으로 적용 됩니다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 도깨비나라의 도깨비숲에서, 
+도깨비불을 얻는데 사용 됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 수미산의 수미산 정화에서, 
+수미꽃을 획득하는데 사용 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 소환탭의 영혼반지에서 획득하실 수 있고, 
+영혼반지를 뽑는데 사용 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정예 요괴를 상대하여 클리어하면 보상과 
+함께 다음단계에 도전하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비를 처치하고 매일 보상을 받으실 수 있습니다.
+레벨 50만 달성시 보물 도깨비전이 해금 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼의숲 요괴를 처치하고, 능력치를 올리실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12마리의 십이지신 요괴를 처치하고 보상을 받으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천도 복숭아를 획득해 손오공을 강화시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록한 점수에 맞는 악귀 효과를 획득하실 수 있습니다.
+피해량과, 일정시간 무적 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7종의 신요괴를 처치하고 무기나 특수 능력치를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴탈을 획득하여 능력치를 얻으실 수  있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6종의 수호신을 공략하여 노리개와 환수를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 지옥베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 천상베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 귀신베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 금강베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 신수베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥불꽃을 획득해 능력치를 강화시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검조각을 획득해 검기를 강화하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 보스 입니다. 요괴석을 획득하실 수 있고, 
+요괴석은 다른 재화로 교환하실 수 있습니다.
+문파별로 점수를 집계해 매주 랭킹 보상을 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스들을 처치해 베기 능력치를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 유저들과 힘을 합쳐 보스를 공략하는 컨텐츠 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 베기 효과를 강화하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴도장(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이요괴전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼의숲(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12요괴전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백귀야행(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부처님전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악귀퇴치/악의씨앗(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신요괴전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴탈/귀신나무(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호신(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염&amp;옥&amp;도&amp;수(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼시험(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수별자리(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의산(가방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은구미호전(문파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이요괴에게 피해를 입혀 보상을 획득하실 수 있습니다.
+입장하는데 소환서가 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 단계를 클리어 하고,
+최고 단계에 맞는 보상을 매일 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미호 보스를 상대해 능력치를 올릴 수 있는 
+꼬리를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이 보스를 공략하여 매일 보상과,
+랭킹 보상을 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 클리어 하거나, 일일미션, 칭호등에서
 보상으로 받을 수 있는 재화 입니다.
 외형 옵션을 재설정 하거나,고양이 요괴전 소탕권을
 교환하는데 주로 사용 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요괴사냥 부처님전의 부처님손바닥에서 
-능력치를 올리는데 사용 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가방의 검의산 탭에서 획득하실 수 있고, 
-검기 효과를 강화하는데 사용 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴사냥 도깨비나라의 도깨비숲에서 
-능력치를 올리는데 사용 됩니다
-(자동으로 적용 됩니다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴사냥 도깨비나라의 도깨비숲에서, 
-도깨비불을 얻는데 사용 됩니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴사냥 수미산의 수미산 정화에서, 
-수미꽃을 획득하는데 사용 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 소환탭의 영혼반지에서 획득하실 수 있고, 
-영혼반지를 뽑는데 사용 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">반딧불을 잡고 매일 재화를 획득하실 수 있습니다.
-레벨 100만 달성시 대왕 반딧불전으로 바뀝니다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정예 요괴를 상대하여 클리어하면 보상과 
-함께 다음단계에 도전하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비를 처치하고 매일 보상을 받으실 수 있습니다.
-레벨 50만 달성시 보물 도깨비전이 해금 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼의숲 요괴를 처치하고, 능력치를 올리실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12마리의 십이지신 요괴를 처치하고 보상을 받으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천도 복숭아를 획득해 손오공을 강화시킬 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록한 점수에 맞는 악귀 효과를 획득하실 수 있습니다.
-피해량과, 일정시간 무적 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7종의 신요괴를 처치하고 무기나 특수 능력치를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴탈을 획득하여 능력치를 얻으실 수  있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6종의 수호신을 공략하여 노리개와 환수를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러가지 컨텐츠를 클리어해 지옥베기 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러가지 컨텐츠를 클리어해 천상베기 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러가지 컨텐츠를 클리어해 귀신베기 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러가지 컨텐츠를 클리어해 금강베기 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러가지 컨텐츠를 클리어해 신수베기 효과를 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지옥불꽃을 획득해 능력치를 강화시킬 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검조각을 획득해 검기를 강화하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 보스 입니다. 요괴석을 획득하실 수 있고, 
-요괴석은 다른 재화로 교환하실 수 있습니다.
-문파별로 점수를 집계해 매주 랭킹 보상을 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스들을 처치해 베기 능력치를 획득하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 유저들과 힘을 합쳐 보스를 공략하는 컨텐츠 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러가지 베기 효과를 강화하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴도장(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이요괴전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼의숲(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12요괴전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백귀야행(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구미호전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부처님전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악귀퇴치/악의씨앗(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신요괴전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강철이전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴탈/귀신나무(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수호신(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴지옥(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>십만대산(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천상계(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염&amp;옥&amp;도&amp;수(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼시험(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비나라(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사신수별자리(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수미산(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장간(메뉴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검의산(가방)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은구미호전(문파)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반딧불전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이요괴에게 피해를 입혀 보상을 획득하실 수 있습니다.
-입장하는데 소환서가 필요합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 단계를 클리어 하고,
-최고 단계에 맞는 보상을 매일 획득하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구미호 보스를 상대해 능력치를 올릴 수 있는 
-꼬리를 획득하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강철이 보스를 공략하여 매일 보상과,
-랭킹 보상을 얻으실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지 단위</t>
+    <t>단계에 따라 수호동물을 획득하실 수 있습니다.
+거대화된 수호동물을 구하고, 수호동물을 획득해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호동물전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호동물전에서 획득할 수 있는 재화 입니다.
+수호 동물을 레벨업 시켜 수호베기 효과를 증가시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지에서 요괴를 사냥하거나, 일일훈련, 여우패스 등에서
+보상으로 받을 수 있는 재화 입니다.
+여우구슬을 각성 하거나, 환수 및 환수 장비를
+강화하는데 주로 사용 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반딧불을 잡고 매일 재화를 획득하실 수 있습니다.
+레벨 100만 달성시 대왕 반딧불전으로 바뀝니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 2개씩 획득 가능합니다.
+수호 동물전 단계에 따라 수호환를 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" ……</t>
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언" ……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,11 +892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE44"/>
+  <dimension ref="A1:GE48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -911,10 +948,10 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1111,13 +1148,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -1317,10 +1354,10 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -1520,13 +1557,13 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:187" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:187" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1534,19 +1571,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:187" x14ac:dyDescent="0.3">
@@ -1557,19 +1594,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:187" x14ac:dyDescent="0.3">
@@ -1580,22 +1617,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:187" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1603,22 +1640,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:187" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:187" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1626,22 +1663,22 @@
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:187" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:187" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1649,19 +1686,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:187" ht="33" x14ac:dyDescent="0.3">
@@ -1672,19 +1709,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:187" ht="33" x14ac:dyDescent="0.3">
@@ -1695,22 +1732,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:187" ht="49.5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:187" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1718,22 +1755,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>9001</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:187" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:187" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1741,19 +1778,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:187" ht="33" x14ac:dyDescent="0.3">
@@ -1763,20 +1800,20 @@
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>9008</v>
+      <c r="C16" s="2">
+        <v>9002</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1786,20 +1823,20 @@
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>9009</v>
+      <c r="C17">
+        <v>9008</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1810,42 +1847,42 @@
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>9010</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1855,17 +1892,20 @@
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1876,16 +1916,16 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1896,19 +1936,19 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1916,16 +1956,16 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1936,19 +1976,19 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1956,16 +1996,16 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1976,19 +2016,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1996,19 +2036,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2016,19 +2056,19 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2036,19 +2076,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2056,19 +2096,19 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2076,16 +2116,16 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2096,16 +2136,16 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2116,16 +2156,16 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2136,16 +2176,16 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2156,16 +2196,16 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2176,16 +2216,16 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2196,16 +2236,16 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2216,16 +2256,16 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2236,16 +2276,16 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2256,16 +2296,16 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2276,16 +2316,16 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2296,19 +2336,19 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2316,30 +2356,122 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>9016</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>9017</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA02411-6BEC-4381-97A4-11E5AC28BC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071EE496-2FC1-4E73-893E-80FFF2F87699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,14 +386,6 @@
   </si>
   <si>
     <t>수미산(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장간(메뉴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검의산(가방)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,11 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단계에 따라 수호동물을 획득하실 수 있습니다.
-거대화된 수호동물을 구하고, 수호동물을 획득해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수호동물전(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,6 +472,63 @@
   <si>
     <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
 "만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언" ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 대장간(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 흉수베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 섬광베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계에 따라 수호동물을 획득하실 수 있습니다.
+거대화된 수호동물을 구하고, 수호동물을 획득해 보세요.
+수호 동물 획득 시 수호베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의 영혼(가방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의 산(가방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리개 수호령(가방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노리개 수호령을 공략해 노리개 장착 효과를 강화하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대산군(문파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의 영혼을 처치해 검기를 강화하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 명이서 힘을 합쳐 공략하는 문파 보스 입니다.
+요괴석을 획득하실 수 있고,
+문파 상점에서 다른 재화로 교환하실 수 있습니다.
+문파별로 점수를 집계해 매주 랭킹 보상을 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,11 +936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE48"/>
+  <dimension ref="A1:GE53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1574,10 +1618,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1896,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -1939,7 +1983,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -1976,10 +2020,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -1996,10 +2040,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2008,7 +2052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2016,10 +2060,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2036,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2048,7 +2092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2056,10 +2100,10 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2068,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2076,10 +2120,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2088,7 +2132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2096,10 +2140,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2108,7 +2152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2116,10 +2160,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2128,7 +2172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2136,10 +2180,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2156,10 +2200,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2176,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2196,10 +2240,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2216,10 +2260,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2236,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2256,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2276,10 +2320,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2296,10 +2340,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2316,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2336,19 +2380,13 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2356,10 +2394,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2368,7 +2406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2376,10 +2414,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2388,7 +2426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2396,30 +2434,24 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2428,21 +2460,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>9016</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2451,26 +2480,129 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C48">
+      <c r="C52">
+        <v>9016</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
         <v>9017</v>
       </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071EE496-2FC1-4E73-893E-80FFF2F87699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C448303C-EA37-47AF-BE67-92F65E02E2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="117">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,16 @@
 요괴석을 획득하실 수 있고,
 문파 상점에서 다른 재화로 교환하실 수 있습니다.
 문파별로 점수를 집계해 매주 랭킹 보상을 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 궁극 기술을 획득할 수 있습니다.
+궁극 기술은 보스당 1회만 사용 가능하며 자동으로 슬롯에 착용됩니다.
+상위 궁극 스킬 습득 시 자동으로 교체되며 슬롯에 착용됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE53"/>
+  <dimension ref="A1:GE54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2406,7 +2416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2414,10 +2424,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2434,10 +2444,16 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2448,16 +2464,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2468,10 +2478,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2488,10 +2498,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2500,7 +2510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2508,10 +2518,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2520,7 +2530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2528,10 +2538,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2540,18 +2550,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2560,21 +2570,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>9016</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2591,18 +2598,41 @@
         <v>3</v>
       </c>
       <c r="C53">
+        <v>9016</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
         <v>9017</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C448303C-EA37-47AF-BE67-92F65E02E2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB29DD3-0056-4A00-8921-389564961F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="123">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강철이전(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요괴탈/귀신나무(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +362,6 @@
   </si>
   <si>
     <t>천상계(요괴사냥)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염&amp;옥&amp;도&amp;수(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,11 +401,6 @@
   <si>
     <t>구미호 보스를 상대해 능력치를 올릴 수 있는 
 꼬리를 획득하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강철이 보스를 공략하여 매일 보상과,
-랭킹 보상을 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,11 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언" ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 대장간(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,6 +521,52 @@
     <t>여러가지 컨텐츠를 클리어해 궁극 기술을 획득할 수 있습니다.
 궁극 기술은 보스당 1회만 사용 가능하며 자동으로 슬롯에 착용됩니다.
 상위 궁극 스킬 습득 시 자동으로 교체되며 슬롯에 착용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이전(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록한 점수에 따라 수련의 돌 보상을 획득하실 수 있습니다.
+강철이 보스를 공격하여 성장을 확인해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마" ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕의 시련(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 심연베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 소환의 영혼반지에서 사용하실 수 있습니다.
+1개당 1회 소탕량만큼 영혼석을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 동굴(문파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문파 동굴을 공략하여 요괴석과 독침을 획득하실 수 있습니다.
+독침은 혈자리의 하단전베기 피해량을 강화시켜 줍니다.
+요괴석은 다른 재화로 교환하실 수 있습니다.
+문파별로 점수를 집계해 매주 추가 보상을 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,11 +974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE54"/>
+  <dimension ref="A1:GE57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1628,10 +1656,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1944,16 +1972,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>9023</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -1967,13 +1995,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>9016</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -1987,13 +2018,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>9017</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2010,10 +2044,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2022,18 +2056,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2042,7 +2079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2050,10 +2087,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2062,7 +2099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2070,10 +2107,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2090,10 +2127,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2102,7 +2139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2110,10 +2147,10 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2130,10 +2167,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2142,7 +2179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2150,10 +2187,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2162,7 +2199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2170,10 +2207,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2190,10 +2227,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2210,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2222,7 +2259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2230,10 +2267,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2250,10 +2287,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2270,10 +2307,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2290,10 +2327,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2310,10 +2347,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2330,10 +2367,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2350,10 +2387,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2370,10 +2407,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2390,13 +2427,19 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2404,10 +2447,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2416,7 +2459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2424,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2444,19 +2487,13 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2464,13 +2501,19 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2478,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2498,10 +2541,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2518,10 +2561,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2530,7 +2573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2538,10 +2581,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2550,7 +2593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2558,10 +2601,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2570,18 +2613,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2590,21 +2633,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>9016</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2613,26 +2653,83 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>9017</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
       </c>
       <c r="G54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB29DD3-0056-4A00-8921-389564961F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C955A-300B-40C6-A3DE-930939D9C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,11 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소탕권은 매일 2개씩 획득 가능합니다.
-수호 동물전 단계에 따라 수호환를 획득하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 대장간(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,6 +562,65 @@
 독침은 혈자리의 하단전베기 피해량을 강화시켜 줍니다.
 요괴석은 다른 재화로 교환하실 수 있습니다.
 문파별로 점수를 집계해 매주 추가 보상을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우굴에서 획득할 수 있는 재화 입니다.
+여우불 단계를 올려 여우베기 효과를 증가시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 2개씩 획득 가능합니다.
+소탕 시 수호 동물전 단계에 따라 수호환를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우굴(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방을 통해 요도를 획득하실 수 있습니다.
+요도는 강화 공격 피해량을 올려줍니다.
+더 높은 등급의 요도를 획득해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계에 따라 더 많은 여우불을 획득하실 수 있습니다.
+여우불을 강화시켜 여우베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 여우불을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 4개씩 획득 가능합니다.
+소탕 시 요도 해방 단계에 따라 요도를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 2개씩 획득 가능합니다.
+소탕 시 여우굴 단계에 따라 여우불씨를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,11 +1028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE57"/>
+  <dimension ref="A1:GE63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1978,10 +2032,10 @@
         <v>9023</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -2027,7 +2081,7 @@
         <v>96</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2041,13 +2095,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>9026</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2061,16 +2118,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>9027</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2084,13 +2141,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>9028</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2107,10 +2167,10 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2119,7 +2179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2127,10 +2187,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2139,18 +2199,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2159,7 +2222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2167,10 +2230,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2179,7 +2242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2187,10 +2250,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2207,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2219,7 +2282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2227,10 +2290,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2247,10 +2310,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2259,7 +2322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2267,10 +2330,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2279,7 +2342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2287,10 +2350,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2299,7 +2362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2307,10 +2370,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2327,10 +2390,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2339,7 +2402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2347,10 +2410,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2367,10 +2430,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2387,10 +2450,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2407,10 +2470,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2427,10 +2490,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2447,10 +2510,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2467,10 +2530,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2487,13 +2550,19 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2501,10 +2570,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2513,7 +2582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2521,10 +2590,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2541,10 +2610,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2553,7 +2622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2561,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>102</v>
@@ -2573,7 +2642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2581,10 +2650,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2601,16 +2670,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2621,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2633,7 +2696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2641,10 +2704,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2653,7 +2716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2661,10 +2724,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2673,7 +2736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2681,10 +2744,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -2693,7 +2756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2701,10 +2764,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -2713,23 +2776,143 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D63" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="E63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C955A-300B-40C6-A3DE-930939D9C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6F7A1F-94D2-4E5D-83E9-69B073D815D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="141">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,16 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기록한 점수에 따라 수련의 돌 보상을 획득하실 수 있습니다.
-강철이 보스를 공격하여 성장을 확인해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마" ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영혼석 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요도 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여우굴(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,11 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소탕권은 매일 4개씩 획득 가능합니다.
-소탕 시 요도 해방 단계에 따라 요도를 획득하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소탕권은 매일 2개씩 획득 가능합니다.
 소탕 시 여우굴 단계에 따라 여우불씨를 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +602,51 @@
   </si>
   <si>
     <t>여우불씨 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극도장(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 시련(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 신선베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방서는 매일 4개씩 획득 가능합니다.
+소탕 시 요도 해방 단계에 따라 요도를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 단계를 클리어하고,
+최고 단계에 맞는 능력치를 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록한 점수에 따라 수련의 돌 보상을 획득하실 수 있습니다.
+강철이 보스를 공격하여 성장을 확인해 보세요.
+강철이 초기화는 매달 1일에 갱신됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스들을 처치해 재화 능력치와 방치 보상을 강화시킬 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,11 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE63"/>
+  <dimension ref="A1:GE66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2032,10 +2058,10 @@
         <v>9023</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -2081,7 +2107,7 @@
         <v>96</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2101,10 +2127,10 @@
         <v>9026</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2124,10 +2150,10 @@
         <v>9027</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2147,10 +2173,10 @@
         <v>9028</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2159,7 +2185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2170,7 +2196,7 @@
         <v>112</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2187,10 +2213,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2322,7 +2348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2330,10 +2356,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2342,7 +2368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2350,10 +2376,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2370,10 +2396,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2382,7 +2408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2390,10 +2416,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2402,7 +2428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2410,10 +2436,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2422,7 +2448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2430,10 +2456,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2450,10 +2476,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2470,10 +2496,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2490,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2510,10 +2536,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2530,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2550,10 +2576,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2570,10 +2596,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2590,10 +2616,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2610,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2622,7 +2648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2630,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2642,7 +2668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2650,10 +2676,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2662,7 +2688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2670,10 +2696,16 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>99</v>
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2684,19 +2716,13 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2704,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2724,10 +2750,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2736,7 +2762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2744,10 +2770,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -2764,10 +2790,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -2784,10 +2810,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -2804,10 +2830,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -2824,10 +2850,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -2836,7 +2862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2844,10 +2870,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -2856,7 +2882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2864,10 +2890,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -2876,7 +2902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2884,10 +2910,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -2901,18 +2927,78 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D66" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="E66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6F7A1F-94D2-4E5D-83E9-69B073D815D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A906E-D62F-4A4A-8EE8-506F16839D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="143">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,11 +605,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요도 해방서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,6 +642,20 @@
   </si>
   <si>
     <t>보스들을 처치해 재화 능력치와 방치 보상을 강화시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교 " ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산군전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 궁극 기술 비전서와
+수호동물을 얻으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,11 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE66"/>
+  <dimension ref="A1:GE67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2173,10 +2182,10 @@
         <v>9028</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2196,7 +2205,7 @@
         <v>112</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2356,10 +2365,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2750,10 +2759,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2842,7 +2851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2850,16 +2859,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2870,10 +2873,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -2890,10 +2893,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -2910,10 +2913,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
         <v>42</v>
@@ -2922,7 +2925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2930,10 +2933,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -2942,7 +2945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2950,10 +2953,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -2970,10 +2973,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -2982,23 +2985,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="E67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A906E-D62F-4A4A-8EE8-506F16839D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001A4637-8759-480D-A89C-9CE0D5534DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="151">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,11 +222,6 @@
   <si>
     <t>정예 요괴를 상대하여 클리어하면 보상과 
 함께 다음단계에 도전하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비를 처치하고 매일 보상을 받으실 수 있습니다.
-레벨 50만 달성시 보물 도깨비전이 해금 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -645,17 +640,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
-"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교 " ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>산군전(요괴사냥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여러가지 컨텐츠를 클리어해 궁극 기술 비전서와
 수호동물을 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비전을 플레이하고 경험치를 획득할 수 있습니다.
+도깨비전 소탕 시, 도깨비 처치수와 현재 스테이지에 따라 경험치를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000배를 넘어갈 때마다 단위가 바뀝니다.
+"만", "억", "조", "경", "해", "자", "양", "구", "간", "정", "재", "극", "항", "아", "나", "불", "무", "대", "겁", "업", "긍", "갈", "라" , "가", "언", "승", "마", "살", "섬" , "찰" , "교", "위" ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 귀살베기 효과를 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술에서 획득할 수 있는 재화 입니다.
+도술 단계를 올려 도술 피해량을 증가시킬 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소탕권은 매일 2개씩 획득 가능합니다.
+소탕 시 도술 단계에 따라 도술꽃을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록한 점수에 따라 도술꽃 보상을 획득하실 수 있습니다.
+매일 소탕권 2개씩을 획득합니다.
+일정 도술레벨 달성 시 신규 도술을 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,11 +1099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE67"/>
+  <dimension ref="A1:GE71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1745,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -2067,10 +2103,10 @@
         <v>9023</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -2090,10 +2126,10 @@
         <v>9016</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -2113,10 +2149,10 @@
         <v>9017</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2136,10 +2172,10 @@
         <v>9026</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
         <v>42</v>
@@ -2159,10 +2195,10 @@
         <v>9027</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2182,10 +2218,10 @@
         <v>9028</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2194,18 +2230,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>9032</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
@@ -2214,18 +2253,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>9033</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -2234,21 +2276,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -2257,7 +2296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2265,10 +2304,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
@@ -2277,7 +2316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2285,10 +2324,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -2304,11 +2343,14 @@
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
         <v>42</v>
@@ -2317,7 +2359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2325,10 +2367,10 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
@@ -2337,7 +2379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2345,10 +2387,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
         <v>42</v>
@@ -2365,10 +2407,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>42</v>
@@ -2385,10 +2427,10 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -2397,7 +2439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2405,10 +2447,10 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -2425,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -2445,10 +2487,10 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -2465,10 +2507,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -2477,7 +2519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2485,10 +2527,10 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -2505,10 +2547,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -2517,7 +2559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2525,10 +2567,10 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -2545,10 +2587,10 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -2565,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -2585,10 +2627,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -2605,10 +2647,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -2625,10 +2667,10 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -2645,10 +2687,10 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
@@ -2665,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -2677,7 +2719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2685,10 +2727,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2697,7 +2739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2705,10 +2747,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2725,13 +2767,19 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2739,10 +2787,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2751,7 +2799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2759,10 +2807,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2771,7 +2819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2779,16 +2827,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2799,10 +2841,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -2819,10 +2861,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -2831,7 +2873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2839,10 +2881,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -2851,7 +2893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2859,10 +2901,16 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2873,10 +2921,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -2893,10 +2941,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -2905,7 +2953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2913,16 +2961,10 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" t="s">
-        <v>42</v>
-      </c>
-      <c r="G62" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2933,10 +2975,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -2945,7 +2987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2953,10 +2995,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -2965,7 +3007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2973,10 +3015,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -2985,7 +3027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2993,10 +3035,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3005,23 +3047,103 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
         <v>87</v>
       </c>
-      <c r="D67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="E71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Assets/06.Table/ChoboTable.xlsx
+++ b/Assets/06.Table/ChoboTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001A4637-8759-480D-A89C-9CE0D5534DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3968FFDA-0E6B-4811-A8C5-16061E0A3837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChoboTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="155">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,24 @@
     <t>기록한 점수에 따라 도술꽃 보상을 획득하실 수 있습니다.
 매일 소탕권 2개씩을 획득합니다.
 일정 도술레벨 달성 시 신규 도술을 획득하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전 전수(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구전(요괴사냥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 천구 구술과
+수호동물을 얻으실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 컨텐츠를 클리어해 궁극기술과
+비전서를 획득하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,11 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:GE71"/>
+  <dimension ref="A1:GE73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2719,7 +2737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2727,10 +2745,10 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -2747,10 +2765,10 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -2767,10 +2785,10 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -2779,7 +2797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2787,10 +2805,10 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -2799,7 +2817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2807,10 +2825,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -2819,7 +2837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2827,10 +2845,16 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>98</v>
+        <v>125</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2841,16 +2865,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2861,10 +2879,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -2873,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2881,10 +2899,10 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -2893,7 +2911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2901,10 +2919,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -2921,10 +2939,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -2941,10 +2959,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -2953,7 +2971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2961,13 +2979,19 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2975,10 +2999,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -2987,7 +3011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2995,10 +3019,10 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3015,10 +3039,10 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="F65" t="s">
         <v>42</v>
@@ -3035,10 +3059,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="F66" t="s">
         <v>42</v>
@@ -3055,10 +3079,10 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
         <v>42</v>
@@ -3067,7 +3091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3075,10 +3099,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F68" t="s">
         <v>42</v>
@@ -3087,7 +3111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3095,10 +3119,10 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F69" t="s">
         <v>42</v>
@@ -3107,7 +3131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3115,10 +3139,10 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
         <v>42</v>
@@ -3127,23 +3151,63 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s">
         <v>42</v>
       </c>
     </row>
